--- a/src/make_cv/files/Service/undergraduate research data.xlsx
+++ b/src/make_cv/files/Service/undergraduate research data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C8FB4F-78B2-B047-A398-C75D076BCD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD048A75-ADEA-6541-A131-B0CFC8F82618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{30499BC2-6105-D842-B2BA-C2A7099B1CA2}"/>
+    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{30499BC2-6105-D842-B2BA-C2A7099B1CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Notes</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>see above</t>
+  </si>
+  <si>
+    <t>Winter</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71BD48-BF11-2A4C-8F03-3601EF848594}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,38 +570,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -606,9 +606,17 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -621,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDE4664-6D62-9E4C-9A84-C4B1705A4452}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,6 +657,30 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{DA497C13-6F93-7F40-90CD-DFEA9FED867E}">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B3DE7FF-7A73-B544-8D83-158BC08EB9B9}">
+          <x14:formula1>
+            <xm:f>Notes!$A$7:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E068D81E-E748-5B45-B9E9-82B62DB0B245}">
+          <x14:formula1>
+            <xm:f>Notes!$A$14:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/make_cv/files/Service/undergraduate research data.xlsx
+++ b/src/make_cv/files/Service/undergraduate research data.xlsx
@@ -1,140 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD048A75-ADEA-6541-A131-B0CFC8F82618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{30499BC2-6105-D842-B2BA-C2A7099B1CA2}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11160" yWindow="3440" windowWidth="27240" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>We will add this data ever semester, but you will need to add titles for the projects</t>
-  </si>
-  <si>
-    <t>You can also add your own stuff as we only append things to this file</t>
-  </si>
-  <si>
-    <t>The Notes get overwritten so changes to those will be lost</t>
-  </si>
-  <si>
-    <t>Program Types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Int. Design </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honors </t>
-  </si>
-  <si>
-    <t>McNair</t>
-  </si>
-  <si>
-    <t>Ind. Proj.</t>
-  </si>
-  <si>
-    <t>Und. Res.</t>
-  </si>
-  <si>
-    <t>Semesters</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Students</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Program Type</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Calendar Year</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student names in any format, probably Last1, First1; Last2, First2 etc… is best </t>
-  </si>
-  <si>
-    <t>Title of the project</t>
-  </si>
-  <si>
-    <t>see above</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,22 +55,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -488,136 +449,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE71BD48-BF11-2A4C-8F03-3601EF848594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col width="18.83203125" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>We will add this data ever semester, but you will need to add titles for the projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>You can also add your own stuff as we only append things to this file</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The Notes get overwritten so changes to those will be lost</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Program Types</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Int. Design </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Honors </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>McNair</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ind. Proj.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Und. Res.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Semesters</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Winter</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Student names in any format, probably Last1, First1; Last2, First2 etc… is best </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Title of the project</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>see above</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Semesters</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>see above</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Calendar Year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>see above</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -626,61 +643,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDE4664-6D62-9E4C-9A84-C4B1705A4452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col width="20.1640625" customWidth="1" min="3" max="3"/>
+    <col width="22.33203125" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Calendar Year</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{DA497C13-6F93-7F40-90CD-DFEA9FED867E}">
+  <dataValidations count="3">
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$A$7:$A$11</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$A$14:$A$17</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="whole" operator="between">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B3DE7FF-7A73-B544-8D83-158BC08EB9B9}">
-          <x14:formula1>
-            <xm:f>Notes!$A$7:$A$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E068D81E-E748-5B45-B9E9-82B62DB0B245}">
-          <x14:formula1>
-            <xm:f>Notes!$A$14:$A$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>